--- a/量云_工时分摊表&绩效考核表&年终总结/张若愚_2021年员工11月绩效考核表-深圳量云.xlsx
+++ b/量云_工时分摊表&绩效考核表&年终总结/张若愚_2021年员工11月绩效考核表-深圳量云.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -233,6 +233,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>姓名：</t>
     </r>
     <r>
@@ -518,6 +523,33 @@
     <t>交付成果</t>
   </si>
   <si>
+    <t>完成广西项目后台接口，api接口开发</t>
+  </si>
+  <si>
+    <t>按实际开发文档，完成接口api文档对接，接口调用层项目完成所有接口联调，页面正常展示数据</t>
+  </si>
+  <si>
+    <t>最终得分=综合评定打分*权重： 
+1、优秀（90—100分）：远远超越期望；
+2、良好（80—90分） ：超越期望；
+3、 合格（70—80分）：达到要求 ；
+4、不合格（70分以下）：未达到预期。</t>
+  </si>
+  <si>
+    <t>1. 广西项目api接口，完成首页功能的10个接口；
+2. 完成前端项目首页功能10个联调接口数据对接；</t>
+  </si>
+  <si>
+    <t>完成瓜州项目开发文档的编写，接口的对接</t>
+  </si>
+  <si>
+    <t>完成实际开发文档，完成接口api文档对接</t>
+  </si>
+  <si>
+    <t>1. 完成瓜州项目9大模块，35个子模块的开发文档的编写；
+2. 完成瓜州项目开发文档能效评估、能效诊断和可靠性分析等模块20个接口的逻辑确认；</t>
+  </si>
+  <si>
     <t>工作行为表现</t>
   </si>
   <si>
@@ -542,10 +574,15 @@
     <t xml:space="preserve">被考评人：        张若愚                               日期：          2021年11月30日                                    考评人：                                         日期：                     </t>
   </si>
   <si>
-    <t>2021年     月员工月度绩效考核表</t>
+    <t>2021年12月员工月度绩效考核表</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>姓名：</t>
     </r>
     <r>
@@ -754,7 +791,17 @@
     <t>沙扒智慧风电场项目</t>
   </si>
   <si>
-    <t>完成分配的沙扒智慧风电场项目相关的功能模块开发任务</t>
+    <t>1. 在线查阅船舶AIS管理系统相关的厂家和供应商；
+2. 筛选出合适的船舶AIS管理系统相关的供应商，并与厂家进行线上或电话沟通，是否可以满足我方业务需求；
+3.在线查阅与船舶AIS管理系统相关的介绍与详细说明；</t>
+  </si>
+  <si>
+    <t>风功率预测系统</t>
+  </si>
+  <si>
+    <t>1. 对气象数据的研究，例如：气象数据的单位、气象数据的规律、对收集来的气象数据进行处理、以及将气象数据以什么样的格式入库等；
+2. 进行原型图的设计，主要是风功率预测系统里的气象数据模块的数据天气预报子模块和风速对比图子模块；
+3. 参加与肖平平等组织的风功率系统的开发交流会；</t>
   </si>
   <si>
     <t xml:space="preserve">被考评人：                                       日期：                                                          考评人：                                         日期：                     </t>
@@ -989,15 +1036,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1072,20 +1119,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1128,7 +1161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,7 +1169,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,9 +1189,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1175,13 +1218,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,6 +1260,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1234,22 +1277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,7 +1310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1339,60 +1367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1405,7 +1379,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,109 +1535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,154 +2056,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2425,15 +2447,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="7" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2489,193 +2508,199 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="7" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="7" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="6" borderId="7" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="7" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4932,1119 +4957,1119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="2" max="2" width="30.7272727272727" style="111" customWidth="1"/>
-    <col min="3" max="3" width="32.7272727272727" style="111" customWidth="1"/>
-    <col min="4" max="4" width="18.4545454545455" style="111" customWidth="1"/>
-    <col min="5" max="5" width="18.7272727272727" style="111" customWidth="1"/>
-    <col min="6" max="6" width="21.2727272727273" style="111" customWidth="1"/>
-    <col min="7" max="7" width="17.4545454545455" style="111" customWidth="1"/>
-    <col min="8" max="8" width="17.2727272727273" style="111" customWidth="1"/>
-    <col min="9" max="9" width="14.4545454545455" style="111" customWidth="1"/>
-    <col min="10" max="10" width="16.7272727272727" style="111" customWidth="1"/>
-    <col min="11" max="11" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="12" max="254" width="8.72727272727273" style="111"/>
-    <col min="255" max="255" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="256" max="256" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="257" max="257" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="258" max="258" width="10" style="111" customWidth="1"/>
-    <col min="259" max="259" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="260" max="260" width="8" style="111" customWidth="1"/>
-    <col min="261" max="264" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="265" max="265" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="266" max="266" width="10" style="111" customWidth="1"/>
-    <col min="267" max="267" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="268" max="510" width="8.72727272727273" style="111"/>
-    <col min="511" max="511" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="512" max="512" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="513" max="513" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="514" max="514" width="10" style="111" customWidth="1"/>
-    <col min="515" max="515" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="516" max="516" width="8" style="111" customWidth="1"/>
-    <col min="517" max="520" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="521" max="521" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="522" max="522" width="10" style="111" customWidth="1"/>
-    <col min="523" max="523" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="524" max="766" width="8.72727272727273" style="111"/>
-    <col min="767" max="767" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="768" max="768" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="769" max="769" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="770" max="770" width="10" style="111" customWidth="1"/>
-    <col min="771" max="771" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="772" max="772" width="8" style="111" customWidth="1"/>
-    <col min="773" max="776" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="777" max="777" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="778" max="778" width="10" style="111" customWidth="1"/>
-    <col min="779" max="779" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="780" max="1022" width="8.72727272727273" style="111"/>
-    <col min="1023" max="1023" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="1024" max="1024" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="1025" max="1025" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="1026" max="1026" width="10" style="111" customWidth="1"/>
-    <col min="1027" max="1027" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="1028" max="1028" width="8" style="111" customWidth="1"/>
-    <col min="1029" max="1032" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="1033" max="1033" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="1034" max="1034" width="10" style="111" customWidth="1"/>
-    <col min="1035" max="1035" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="1036" max="1278" width="8.72727272727273" style="111"/>
-    <col min="1279" max="1279" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="1280" max="1280" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="1281" max="1281" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="1282" max="1282" width="10" style="111" customWidth="1"/>
-    <col min="1283" max="1283" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="1284" max="1284" width="8" style="111" customWidth="1"/>
-    <col min="1285" max="1288" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="1289" max="1289" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="1290" max="1290" width="10" style="111" customWidth="1"/>
-    <col min="1291" max="1291" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="1292" max="1534" width="8.72727272727273" style="111"/>
-    <col min="1535" max="1535" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="1536" max="1536" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="1537" max="1537" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="1538" max="1538" width="10" style="111" customWidth="1"/>
-    <col min="1539" max="1539" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="1540" max="1540" width="8" style="111" customWidth="1"/>
-    <col min="1541" max="1544" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="1545" max="1545" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="1546" max="1546" width="10" style="111" customWidth="1"/>
-    <col min="1547" max="1547" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="1548" max="1790" width="8.72727272727273" style="111"/>
-    <col min="1791" max="1791" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="1792" max="1792" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="1793" max="1793" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="1794" max="1794" width="10" style="111" customWidth="1"/>
-    <col min="1795" max="1795" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="1796" max="1796" width="8" style="111" customWidth="1"/>
-    <col min="1797" max="1800" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="1801" max="1801" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="1802" max="1802" width="10" style="111" customWidth="1"/>
-    <col min="1803" max="1803" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="1804" max="2046" width="8.72727272727273" style="111"/>
-    <col min="2047" max="2047" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="2048" max="2048" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="2049" max="2049" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="2050" max="2050" width="10" style="111" customWidth="1"/>
-    <col min="2051" max="2051" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="2052" max="2052" width="8" style="111" customWidth="1"/>
-    <col min="2053" max="2056" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="2057" max="2057" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="2058" max="2058" width="10" style="111" customWidth="1"/>
-    <col min="2059" max="2059" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="2060" max="2302" width="8.72727272727273" style="111"/>
-    <col min="2303" max="2303" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="2304" max="2304" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="2305" max="2305" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="2306" max="2306" width="10" style="111" customWidth="1"/>
-    <col min="2307" max="2307" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="2308" max="2308" width="8" style="111" customWidth="1"/>
-    <col min="2309" max="2312" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="2313" max="2313" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="2314" max="2314" width="10" style="111" customWidth="1"/>
-    <col min="2315" max="2315" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="2316" max="2558" width="8.72727272727273" style="111"/>
-    <col min="2559" max="2559" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="2560" max="2560" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="2561" max="2561" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="2562" max="2562" width="10" style="111" customWidth="1"/>
-    <col min="2563" max="2563" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="2564" max="2564" width="8" style="111" customWidth="1"/>
-    <col min="2565" max="2568" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="2569" max="2569" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="2570" max="2570" width="10" style="111" customWidth="1"/>
-    <col min="2571" max="2571" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="2572" max="2814" width="8.72727272727273" style="111"/>
-    <col min="2815" max="2815" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="2816" max="2816" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="2817" max="2817" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="2818" max="2818" width="10" style="111" customWidth="1"/>
-    <col min="2819" max="2819" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="2820" max="2820" width="8" style="111" customWidth="1"/>
-    <col min="2821" max="2824" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="2825" max="2825" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="2826" max="2826" width="10" style="111" customWidth="1"/>
-    <col min="2827" max="2827" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="2828" max="3070" width="8.72727272727273" style="111"/>
-    <col min="3071" max="3071" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="3072" max="3072" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="3073" max="3073" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="3074" max="3074" width="10" style="111" customWidth="1"/>
-    <col min="3075" max="3075" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="3076" max="3076" width="8" style="111" customWidth="1"/>
-    <col min="3077" max="3080" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="3081" max="3081" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="3082" max="3082" width="10" style="111" customWidth="1"/>
-    <col min="3083" max="3083" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="3084" max="3326" width="8.72727272727273" style="111"/>
-    <col min="3327" max="3327" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="3328" max="3328" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="3329" max="3329" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="3330" max="3330" width="10" style="111" customWidth="1"/>
-    <col min="3331" max="3331" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="3332" max="3332" width="8" style="111" customWidth="1"/>
-    <col min="3333" max="3336" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="3337" max="3337" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="3338" max="3338" width="10" style="111" customWidth="1"/>
-    <col min="3339" max="3339" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="3340" max="3582" width="8.72727272727273" style="111"/>
-    <col min="3583" max="3583" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="3584" max="3584" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="3585" max="3585" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="3586" max="3586" width="10" style="111" customWidth="1"/>
-    <col min="3587" max="3587" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="3588" max="3588" width="8" style="111" customWidth="1"/>
-    <col min="3589" max="3592" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="3593" max="3593" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="3594" max="3594" width="10" style="111" customWidth="1"/>
-    <col min="3595" max="3595" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="3596" max="3838" width="8.72727272727273" style="111"/>
-    <col min="3839" max="3839" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="3840" max="3840" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="3841" max="3841" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="3842" max="3842" width="10" style="111" customWidth="1"/>
-    <col min="3843" max="3843" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="3844" max="3844" width="8" style="111" customWidth="1"/>
-    <col min="3845" max="3848" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="3849" max="3849" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="3850" max="3850" width="10" style="111" customWidth="1"/>
-    <col min="3851" max="3851" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="3852" max="4094" width="8.72727272727273" style="111"/>
-    <col min="4095" max="4095" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="4096" max="4096" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="4097" max="4097" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="4098" max="4098" width="10" style="111" customWidth="1"/>
-    <col min="4099" max="4099" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="4100" max="4100" width="8" style="111" customWidth="1"/>
-    <col min="4101" max="4104" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="4105" max="4105" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="4106" max="4106" width="10" style="111" customWidth="1"/>
-    <col min="4107" max="4107" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="4108" max="4350" width="8.72727272727273" style="111"/>
-    <col min="4351" max="4351" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="4352" max="4352" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="4353" max="4353" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="4354" max="4354" width="10" style="111" customWidth="1"/>
-    <col min="4355" max="4355" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="4356" max="4356" width="8" style="111" customWidth="1"/>
-    <col min="4357" max="4360" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="4361" max="4361" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="4362" max="4362" width="10" style="111" customWidth="1"/>
-    <col min="4363" max="4363" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="4364" max="4606" width="8.72727272727273" style="111"/>
-    <col min="4607" max="4607" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="4608" max="4608" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="4609" max="4609" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="4610" max="4610" width="10" style="111" customWidth="1"/>
-    <col min="4611" max="4611" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="4612" max="4612" width="8" style="111" customWidth="1"/>
-    <col min="4613" max="4616" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="4617" max="4617" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="4618" max="4618" width="10" style="111" customWidth="1"/>
-    <col min="4619" max="4619" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="4620" max="4862" width="8.72727272727273" style="111"/>
-    <col min="4863" max="4863" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="4864" max="4864" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="4865" max="4865" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="4866" max="4866" width="10" style="111" customWidth="1"/>
-    <col min="4867" max="4867" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="4868" max="4868" width="8" style="111" customWidth="1"/>
-    <col min="4869" max="4872" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="4873" max="4873" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="4874" max="4874" width="10" style="111" customWidth="1"/>
-    <col min="4875" max="4875" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="4876" max="5118" width="8.72727272727273" style="111"/>
-    <col min="5119" max="5119" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="5120" max="5120" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="5121" max="5121" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="5122" max="5122" width="10" style="111" customWidth="1"/>
-    <col min="5123" max="5123" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="5124" max="5124" width="8" style="111" customWidth="1"/>
-    <col min="5125" max="5128" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="5129" max="5129" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="5130" max="5130" width="10" style="111" customWidth="1"/>
-    <col min="5131" max="5131" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="5132" max="5374" width="8.72727272727273" style="111"/>
-    <col min="5375" max="5375" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="5376" max="5376" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="5377" max="5377" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="5378" max="5378" width="10" style="111" customWidth="1"/>
-    <col min="5379" max="5379" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="5380" max="5380" width="8" style="111" customWidth="1"/>
-    <col min="5381" max="5384" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="5385" max="5385" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="5386" max="5386" width="10" style="111" customWidth="1"/>
-    <col min="5387" max="5387" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="5388" max="5630" width="8.72727272727273" style="111"/>
-    <col min="5631" max="5631" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="5632" max="5632" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="5633" max="5633" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="5634" max="5634" width="10" style="111" customWidth="1"/>
-    <col min="5635" max="5635" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="5636" max="5636" width="8" style="111" customWidth="1"/>
-    <col min="5637" max="5640" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="5641" max="5641" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="5642" max="5642" width="10" style="111" customWidth="1"/>
-    <col min="5643" max="5643" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="5644" max="5886" width="8.72727272727273" style="111"/>
-    <col min="5887" max="5887" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="5888" max="5888" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="5889" max="5889" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="5890" max="5890" width="10" style="111" customWidth="1"/>
-    <col min="5891" max="5891" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="5892" max="5892" width="8" style="111" customWidth="1"/>
-    <col min="5893" max="5896" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="5897" max="5897" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="5898" max="5898" width="10" style="111" customWidth="1"/>
-    <col min="5899" max="5899" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="5900" max="6142" width="8.72727272727273" style="111"/>
-    <col min="6143" max="6143" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="6144" max="6144" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="6145" max="6145" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="6146" max="6146" width="10" style="111" customWidth="1"/>
-    <col min="6147" max="6147" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="6148" max="6148" width="8" style="111" customWidth="1"/>
-    <col min="6149" max="6152" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="6153" max="6153" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="6154" max="6154" width="10" style="111" customWidth="1"/>
-    <col min="6155" max="6155" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="6156" max="6398" width="8.72727272727273" style="111"/>
-    <col min="6399" max="6399" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="6400" max="6400" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="6401" max="6401" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="6402" max="6402" width="10" style="111" customWidth="1"/>
-    <col min="6403" max="6403" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="6404" max="6404" width="8" style="111" customWidth="1"/>
-    <col min="6405" max="6408" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="6409" max="6409" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="6410" max="6410" width="10" style="111" customWidth="1"/>
-    <col min="6411" max="6411" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="6412" max="6654" width="8.72727272727273" style="111"/>
-    <col min="6655" max="6655" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="6656" max="6656" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="6657" max="6657" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="6658" max="6658" width="10" style="111" customWidth="1"/>
-    <col min="6659" max="6659" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="6660" max="6660" width="8" style="111" customWidth="1"/>
-    <col min="6661" max="6664" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="6665" max="6665" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="6666" max="6666" width="10" style="111" customWidth="1"/>
-    <col min="6667" max="6667" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="6668" max="6910" width="8.72727272727273" style="111"/>
-    <col min="6911" max="6911" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="6912" max="6912" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="6913" max="6913" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="6914" max="6914" width="10" style="111" customWidth="1"/>
-    <col min="6915" max="6915" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="6916" max="6916" width="8" style="111" customWidth="1"/>
-    <col min="6917" max="6920" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="6921" max="6921" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="6922" max="6922" width="10" style="111" customWidth="1"/>
-    <col min="6923" max="6923" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="6924" max="7166" width="8.72727272727273" style="111"/>
-    <col min="7167" max="7167" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="7168" max="7168" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="7169" max="7169" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="7170" max="7170" width="10" style="111" customWidth="1"/>
-    <col min="7171" max="7171" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="7172" max="7172" width="8" style="111" customWidth="1"/>
-    <col min="7173" max="7176" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="7177" max="7177" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="7178" max="7178" width="10" style="111" customWidth="1"/>
-    <col min="7179" max="7179" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="7180" max="7422" width="8.72727272727273" style="111"/>
-    <col min="7423" max="7423" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="7424" max="7424" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="7425" max="7425" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="7426" max="7426" width="10" style="111" customWidth="1"/>
-    <col min="7427" max="7427" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="7428" max="7428" width="8" style="111" customWidth="1"/>
-    <col min="7429" max="7432" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="7433" max="7433" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="7434" max="7434" width="10" style="111" customWidth="1"/>
-    <col min="7435" max="7435" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="7436" max="7678" width="8.72727272727273" style="111"/>
-    <col min="7679" max="7679" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="7680" max="7680" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="7681" max="7681" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="7682" max="7682" width="10" style="111" customWidth="1"/>
-    <col min="7683" max="7683" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="7684" max="7684" width="8" style="111" customWidth="1"/>
-    <col min="7685" max="7688" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="7689" max="7689" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="7690" max="7690" width="10" style="111" customWidth="1"/>
-    <col min="7691" max="7691" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="7692" max="7934" width="8.72727272727273" style="111"/>
-    <col min="7935" max="7935" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="7936" max="7936" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="7937" max="7937" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="7938" max="7938" width="10" style="111" customWidth="1"/>
-    <col min="7939" max="7939" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="7940" max="7940" width="8" style="111" customWidth="1"/>
-    <col min="7941" max="7944" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="7945" max="7945" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="7946" max="7946" width="10" style="111" customWidth="1"/>
-    <col min="7947" max="7947" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="7948" max="8190" width="8.72727272727273" style="111"/>
-    <col min="8191" max="8191" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="8192" max="8192" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="8193" max="8193" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="8194" max="8194" width="10" style="111" customWidth="1"/>
-    <col min="8195" max="8195" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="8196" max="8196" width="8" style="111" customWidth="1"/>
-    <col min="8197" max="8200" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="8201" max="8201" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="8202" max="8202" width="10" style="111" customWidth="1"/>
-    <col min="8203" max="8203" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="8204" max="8446" width="8.72727272727273" style="111"/>
-    <col min="8447" max="8447" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="8448" max="8448" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="8449" max="8449" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="8450" max="8450" width="10" style="111" customWidth="1"/>
-    <col min="8451" max="8451" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="8452" max="8452" width="8" style="111" customWidth="1"/>
-    <col min="8453" max="8456" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="8457" max="8457" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="8458" max="8458" width="10" style="111" customWidth="1"/>
-    <col min="8459" max="8459" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="8460" max="8702" width="8.72727272727273" style="111"/>
-    <col min="8703" max="8703" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="8704" max="8704" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="8705" max="8705" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="8706" max="8706" width="10" style="111" customWidth="1"/>
-    <col min="8707" max="8707" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="8708" max="8708" width="8" style="111" customWidth="1"/>
-    <col min="8709" max="8712" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="8713" max="8713" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="8714" max="8714" width="10" style="111" customWidth="1"/>
-    <col min="8715" max="8715" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="8716" max="8958" width="8.72727272727273" style="111"/>
-    <col min="8959" max="8959" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="8960" max="8960" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="8961" max="8961" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="8962" max="8962" width="10" style="111" customWidth="1"/>
-    <col min="8963" max="8963" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="8964" max="8964" width="8" style="111" customWidth="1"/>
-    <col min="8965" max="8968" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="8969" max="8969" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="8970" max="8970" width="10" style="111" customWidth="1"/>
-    <col min="8971" max="8971" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="8972" max="9214" width="8.72727272727273" style="111"/>
-    <col min="9215" max="9215" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="9216" max="9216" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="9217" max="9217" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="9218" max="9218" width="10" style="111" customWidth="1"/>
-    <col min="9219" max="9219" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="9220" max="9220" width="8" style="111" customWidth="1"/>
-    <col min="9221" max="9224" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="9225" max="9225" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="9226" max="9226" width="10" style="111" customWidth="1"/>
-    <col min="9227" max="9227" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="9228" max="9470" width="8.72727272727273" style="111"/>
-    <col min="9471" max="9471" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="9472" max="9472" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="9473" max="9473" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="9474" max="9474" width="10" style="111" customWidth="1"/>
-    <col min="9475" max="9475" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="9476" max="9476" width="8" style="111" customWidth="1"/>
-    <col min="9477" max="9480" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="9481" max="9481" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="9482" max="9482" width="10" style="111" customWidth="1"/>
-    <col min="9483" max="9483" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="9484" max="9726" width="8.72727272727273" style="111"/>
-    <col min="9727" max="9727" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="9728" max="9728" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="9729" max="9729" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="9730" max="9730" width="10" style="111" customWidth="1"/>
-    <col min="9731" max="9731" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="9732" max="9732" width="8" style="111" customWidth="1"/>
-    <col min="9733" max="9736" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="9737" max="9737" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="9738" max="9738" width="10" style="111" customWidth="1"/>
-    <col min="9739" max="9739" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="9740" max="9982" width="8.72727272727273" style="111"/>
-    <col min="9983" max="9983" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="9984" max="9984" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="9985" max="9985" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="9986" max="9986" width="10" style="111" customWidth="1"/>
-    <col min="9987" max="9987" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="9988" max="9988" width="8" style="111" customWidth="1"/>
-    <col min="9989" max="9992" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="9993" max="9993" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="9994" max="9994" width="10" style="111" customWidth="1"/>
-    <col min="9995" max="9995" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="9996" max="10238" width="8.72727272727273" style="111"/>
-    <col min="10239" max="10239" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="10240" max="10240" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="10241" max="10241" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="10242" max="10242" width="10" style="111" customWidth="1"/>
-    <col min="10243" max="10243" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="10244" max="10244" width="8" style="111" customWidth="1"/>
-    <col min="10245" max="10248" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="10249" max="10249" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="10250" max="10250" width="10" style="111" customWidth="1"/>
-    <col min="10251" max="10251" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="10252" max="10494" width="8.72727272727273" style="111"/>
-    <col min="10495" max="10495" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="10496" max="10496" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="10497" max="10497" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="10498" max="10498" width="10" style="111" customWidth="1"/>
-    <col min="10499" max="10499" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="10500" max="10500" width="8" style="111" customWidth="1"/>
-    <col min="10501" max="10504" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="10505" max="10505" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="10506" max="10506" width="10" style="111" customWidth="1"/>
-    <col min="10507" max="10507" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="10508" max="10750" width="8.72727272727273" style="111"/>
-    <col min="10751" max="10751" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="10752" max="10752" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="10753" max="10753" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="10754" max="10754" width="10" style="111" customWidth="1"/>
-    <col min="10755" max="10755" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="10756" max="10756" width="8" style="111" customWidth="1"/>
-    <col min="10757" max="10760" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="10761" max="10761" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="10762" max="10762" width="10" style="111" customWidth="1"/>
-    <col min="10763" max="10763" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="10764" max="11006" width="8.72727272727273" style="111"/>
-    <col min="11007" max="11007" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="11008" max="11008" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="11009" max="11009" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="11010" max="11010" width="10" style="111" customWidth="1"/>
-    <col min="11011" max="11011" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="11012" max="11012" width="8" style="111" customWidth="1"/>
-    <col min="11013" max="11016" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="11017" max="11017" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="11018" max="11018" width="10" style="111" customWidth="1"/>
-    <col min="11019" max="11019" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="11020" max="11262" width="8.72727272727273" style="111"/>
-    <col min="11263" max="11263" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="11264" max="11264" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="11265" max="11265" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="11266" max="11266" width="10" style="111" customWidth="1"/>
-    <col min="11267" max="11267" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="11268" max="11268" width="8" style="111" customWidth="1"/>
-    <col min="11269" max="11272" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="11273" max="11273" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="11274" max="11274" width="10" style="111" customWidth="1"/>
-    <col min="11275" max="11275" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="11276" max="11518" width="8.72727272727273" style="111"/>
-    <col min="11519" max="11519" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="11520" max="11520" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="11521" max="11521" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="11522" max="11522" width="10" style="111" customWidth="1"/>
-    <col min="11523" max="11523" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="11524" max="11524" width="8" style="111" customWidth="1"/>
-    <col min="11525" max="11528" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="11529" max="11529" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="11530" max="11530" width="10" style="111" customWidth="1"/>
-    <col min="11531" max="11531" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="11532" max="11774" width="8.72727272727273" style="111"/>
-    <col min="11775" max="11775" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="11776" max="11776" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="11777" max="11777" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="11778" max="11778" width="10" style="111" customWidth="1"/>
-    <col min="11779" max="11779" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="11780" max="11780" width="8" style="111" customWidth="1"/>
-    <col min="11781" max="11784" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="11785" max="11785" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="11786" max="11786" width="10" style="111" customWidth="1"/>
-    <col min="11787" max="11787" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="11788" max="12030" width="8.72727272727273" style="111"/>
-    <col min="12031" max="12031" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="12032" max="12032" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="12033" max="12033" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="12034" max="12034" width="10" style="111" customWidth="1"/>
-    <col min="12035" max="12035" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="12036" max="12036" width="8" style="111" customWidth="1"/>
-    <col min="12037" max="12040" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="12041" max="12041" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="12042" max="12042" width="10" style="111" customWidth="1"/>
-    <col min="12043" max="12043" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="12044" max="12286" width="8.72727272727273" style="111"/>
-    <col min="12287" max="12287" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="12288" max="12288" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="12289" max="12289" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="12290" max="12290" width="10" style="111" customWidth="1"/>
-    <col min="12291" max="12291" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="12292" max="12292" width="8" style="111" customWidth="1"/>
-    <col min="12293" max="12296" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="12297" max="12297" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="12298" max="12298" width="10" style="111" customWidth="1"/>
-    <col min="12299" max="12299" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="12300" max="12542" width="8.72727272727273" style="111"/>
-    <col min="12543" max="12543" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="12544" max="12544" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="12545" max="12545" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="12546" max="12546" width="10" style="111" customWidth="1"/>
-    <col min="12547" max="12547" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="12548" max="12548" width="8" style="111" customWidth="1"/>
-    <col min="12549" max="12552" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="12553" max="12553" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="12554" max="12554" width="10" style="111" customWidth="1"/>
-    <col min="12555" max="12555" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="12556" max="12798" width="8.72727272727273" style="111"/>
-    <col min="12799" max="12799" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="12800" max="12800" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="12801" max="12801" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="12802" max="12802" width="10" style="111" customWidth="1"/>
-    <col min="12803" max="12803" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="12804" max="12804" width="8" style="111" customWidth="1"/>
-    <col min="12805" max="12808" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="12809" max="12809" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="12810" max="12810" width="10" style="111" customWidth="1"/>
-    <col min="12811" max="12811" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="12812" max="13054" width="8.72727272727273" style="111"/>
-    <col min="13055" max="13055" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="13056" max="13056" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="13057" max="13057" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="13058" max="13058" width="10" style="111" customWidth="1"/>
-    <col min="13059" max="13059" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="13060" max="13060" width="8" style="111" customWidth="1"/>
-    <col min="13061" max="13064" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="13065" max="13065" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="13066" max="13066" width="10" style="111" customWidth="1"/>
-    <col min="13067" max="13067" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="13068" max="13310" width="8.72727272727273" style="111"/>
-    <col min="13311" max="13311" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="13312" max="13312" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="13313" max="13313" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="13314" max="13314" width="10" style="111" customWidth="1"/>
-    <col min="13315" max="13315" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="13316" max="13316" width="8" style="111" customWidth="1"/>
-    <col min="13317" max="13320" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="13321" max="13321" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="13322" max="13322" width="10" style="111" customWidth="1"/>
-    <col min="13323" max="13323" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="13324" max="13566" width="8.72727272727273" style="111"/>
-    <col min="13567" max="13567" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="13568" max="13568" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="13569" max="13569" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="13570" max="13570" width="10" style="111" customWidth="1"/>
-    <col min="13571" max="13571" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="13572" max="13572" width="8" style="111" customWidth="1"/>
-    <col min="13573" max="13576" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="13577" max="13577" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="13578" max="13578" width="10" style="111" customWidth="1"/>
-    <col min="13579" max="13579" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="13580" max="13822" width="8.72727272727273" style="111"/>
-    <col min="13823" max="13823" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="13824" max="13824" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="13825" max="13825" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="13826" max="13826" width="10" style="111" customWidth="1"/>
-    <col min="13827" max="13827" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="13828" max="13828" width="8" style="111" customWidth="1"/>
-    <col min="13829" max="13832" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="13833" max="13833" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="13834" max="13834" width="10" style="111" customWidth="1"/>
-    <col min="13835" max="13835" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="13836" max="14078" width="8.72727272727273" style="111"/>
-    <col min="14079" max="14079" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="14080" max="14080" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="14081" max="14081" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="14082" max="14082" width="10" style="111" customWidth="1"/>
-    <col min="14083" max="14083" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="14084" max="14084" width="8" style="111" customWidth="1"/>
-    <col min="14085" max="14088" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="14089" max="14089" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="14090" max="14090" width="10" style="111" customWidth="1"/>
-    <col min="14091" max="14091" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="14092" max="14334" width="8.72727272727273" style="111"/>
-    <col min="14335" max="14335" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="14336" max="14336" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="14337" max="14337" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="14338" max="14338" width="10" style="111" customWidth="1"/>
-    <col min="14339" max="14339" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="14340" max="14340" width="8" style="111" customWidth="1"/>
-    <col min="14341" max="14344" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="14345" max="14345" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="14346" max="14346" width="10" style="111" customWidth="1"/>
-    <col min="14347" max="14347" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="14348" max="14590" width="8.72727272727273" style="111"/>
-    <col min="14591" max="14591" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="14592" max="14592" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="14593" max="14593" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="14594" max="14594" width="10" style="111" customWidth="1"/>
-    <col min="14595" max="14595" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="14596" max="14596" width="8" style="111" customWidth="1"/>
-    <col min="14597" max="14600" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="14601" max="14601" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="14602" max="14602" width="10" style="111" customWidth="1"/>
-    <col min="14603" max="14603" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="14604" max="14846" width="8.72727272727273" style="111"/>
-    <col min="14847" max="14847" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="14848" max="14848" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="14849" max="14849" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="14850" max="14850" width="10" style="111" customWidth="1"/>
-    <col min="14851" max="14851" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="14852" max="14852" width="8" style="111" customWidth="1"/>
-    <col min="14853" max="14856" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="14857" max="14857" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="14858" max="14858" width="10" style="111" customWidth="1"/>
-    <col min="14859" max="14859" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="14860" max="15102" width="8.72727272727273" style="111"/>
-    <col min="15103" max="15103" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="15104" max="15104" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="15105" max="15105" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="15106" max="15106" width="10" style="111" customWidth="1"/>
-    <col min="15107" max="15107" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="15108" max="15108" width="8" style="111" customWidth="1"/>
-    <col min="15109" max="15112" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="15113" max="15113" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="15114" max="15114" width="10" style="111" customWidth="1"/>
-    <col min="15115" max="15115" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="15116" max="15358" width="8.72727272727273" style="111"/>
-    <col min="15359" max="15359" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="15360" max="15360" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="15361" max="15361" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="15362" max="15362" width="10" style="111" customWidth="1"/>
-    <col min="15363" max="15363" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="15364" max="15364" width="8" style="111" customWidth="1"/>
-    <col min="15365" max="15368" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="15369" max="15369" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="15370" max="15370" width="10" style="111" customWidth="1"/>
-    <col min="15371" max="15371" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="15372" max="15614" width="8.72727272727273" style="111"/>
-    <col min="15615" max="15615" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="15616" max="15616" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="15617" max="15617" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="15618" max="15618" width="10" style="111" customWidth="1"/>
-    <col min="15619" max="15619" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="15620" max="15620" width="8" style="111" customWidth="1"/>
-    <col min="15621" max="15624" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="15625" max="15625" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="15626" max="15626" width="10" style="111" customWidth="1"/>
-    <col min="15627" max="15627" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="15628" max="15870" width="8.72727272727273" style="111"/>
-    <col min="15871" max="15871" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="15872" max="15872" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="15873" max="15873" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="15874" max="15874" width="10" style="111" customWidth="1"/>
-    <col min="15875" max="15875" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="15876" max="15876" width="8" style="111" customWidth="1"/>
-    <col min="15877" max="15880" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="15881" max="15881" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="15882" max="15882" width="10" style="111" customWidth="1"/>
-    <col min="15883" max="15883" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="15884" max="16126" width="8.72727272727273" style="111"/>
-    <col min="16127" max="16127" width="11.7272727272727" style="111" customWidth="1"/>
-    <col min="16128" max="16128" width="9.72727272727273" style="111" customWidth="1"/>
-    <col min="16129" max="16129" width="10.7272727272727" style="111" customWidth="1"/>
-    <col min="16130" max="16130" width="10" style="111" customWidth="1"/>
-    <col min="16131" max="16131" width="11.4545454545455" style="111" customWidth="1"/>
-    <col min="16132" max="16132" width="8" style="111" customWidth="1"/>
-    <col min="16133" max="16136" width="10.0909090909091" style="111" customWidth="1"/>
-    <col min="16137" max="16137" width="8.45454545454546" style="111" customWidth="1"/>
-    <col min="16138" max="16138" width="10" style="111" customWidth="1"/>
-    <col min="16139" max="16139" width="15.4545454545455" style="111" customWidth="1"/>
-    <col min="16140" max="16384" width="8.72727272727273" style="111"/>
+    <col min="1" max="1" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="2" max="2" width="30.7272727272727" style="112" customWidth="1"/>
+    <col min="3" max="3" width="32.7272727272727" style="112" customWidth="1"/>
+    <col min="4" max="4" width="18.4545454545455" style="112" customWidth="1"/>
+    <col min="5" max="5" width="18.7272727272727" style="112" customWidth="1"/>
+    <col min="6" max="6" width="21.2727272727273" style="112" customWidth="1"/>
+    <col min="7" max="7" width="17.4545454545455" style="112" customWidth="1"/>
+    <col min="8" max="8" width="17.2727272727273" style="112" customWidth="1"/>
+    <col min="9" max="9" width="14.4545454545455" style="112" customWidth="1"/>
+    <col min="10" max="10" width="16.7272727272727" style="112" customWidth="1"/>
+    <col min="11" max="11" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="12" max="254" width="8.72727272727273" style="112"/>
+    <col min="255" max="255" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="256" max="256" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="257" max="257" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="258" max="258" width="10" style="112" customWidth="1"/>
+    <col min="259" max="259" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="260" max="260" width="8" style="112" customWidth="1"/>
+    <col min="261" max="264" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="265" max="265" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="266" max="266" width="10" style="112" customWidth="1"/>
+    <col min="267" max="267" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="268" max="510" width="8.72727272727273" style="112"/>
+    <col min="511" max="511" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="512" max="512" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="513" max="513" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="514" max="514" width="10" style="112" customWidth="1"/>
+    <col min="515" max="515" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="516" max="516" width="8" style="112" customWidth="1"/>
+    <col min="517" max="520" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="521" max="521" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="522" max="522" width="10" style="112" customWidth="1"/>
+    <col min="523" max="523" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="524" max="766" width="8.72727272727273" style="112"/>
+    <col min="767" max="767" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="768" max="768" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="769" max="769" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="770" max="770" width="10" style="112" customWidth="1"/>
+    <col min="771" max="771" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="772" max="772" width="8" style="112" customWidth="1"/>
+    <col min="773" max="776" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="777" max="777" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="778" max="778" width="10" style="112" customWidth="1"/>
+    <col min="779" max="779" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="780" max="1022" width="8.72727272727273" style="112"/>
+    <col min="1023" max="1023" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="1024" max="1024" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="1025" max="1025" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="1026" max="1026" width="10" style="112" customWidth="1"/>
+    <col min="1027" max="1027" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="1028" max="1028" width="8" style="112" customWidth="1"/>
+    <col min="1029" max="1032" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="1033" max="1033" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="1034" max="1034" width="10" style="112" customWidth="1"/>
+    <col min="1035" max="1035" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="1036" max="1278" width="8.72727272727273" style="112"/>
+    <col min="1279" max="1279" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="1280" max="1280" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="1281" max="1281" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="1282" max="1282" width="10" style="112" customWidth="1"/>
+    <col min="1283" max="1283" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="1284" max="1284" width="8" style="112" customWidth="1"/>
+    <col min="1285" max="1288" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="1289" max="1289" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="1290" max="1290" width="10" style="112" customWidth="1"/>
+    <col min="1291" max="1291" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="1292" max="1534" width="8.72727272727273" style="112"/>
+    <col min="1535" max="1535" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="1536" max="1536" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="1537" max="1537" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="1538" max="1538" width="10" style="112" customWidth="1"/>
+    <col min="1539" max="1539" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="1540" max="1540" width="8" style="112" customWidth="1"/>
+    <col min="1541" max="1544" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="1545" max="1545" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="1546" max="1546" width="10" style="112" customWidth="1"/>
+    <col min="1547" max="1547" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="1548" max="1790" width="8.72727272727273" style="112"/>
+    <col min="1791" max="1791" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="1792" max="1792" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="1793" max="1793" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="1794" max="1794" width="10" style="112" customWidth="1"/>
+    <col min="1795" max="1795" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="1796" max="1796" width="8" style="112" customWidth="1"/>
+    <col min="1797" max="1800" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="1801" max="1801" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="1802" max="1802" width="10" style="112" customWidth="1"/>
+    <col min="1803" max="1803" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="1804" max="2046" width="8.72727272727273" style="112"/>
+    <col min="2047" max="2047" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="2048" max="2048" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="2049" max="2049" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="2050" max="2050" width="10" style="112" customWidth="1"/>
+    <col min="2051" max="2051" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="2052" max="2052" width="8" style="112" customWidth="1"/>
+    <col min="2053" max="2056" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="2057" max="2057" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="2058" max="2058" width="10" style="112" customWidth="1"/>
+    <col min="2059" max="2059" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="2060" max="2302" width="8.72727272727273" style="112"/>
+    <col min="2303" max="2303" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="2304" max="2304" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="2305" max="2305" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="2306" max="2306" width="10" style="112" customWidth="1"/>
+    <col min="2307" max="2307" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="2308" max="2308" width="8" style="112" customWidth="1"/>
+    <col min="2309" max="2312" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="2313" max="2313" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="2314" max="2314" width="10" style="112" customWidth="1"/>
+    <col min="2315" max="2315" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="2316" max="2558" width="8.72727272727273" style="112"/>
+    <col min="2559" max="2559" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="2560" max="2560" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="2561" max="2561" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="2562" max="2562" width="10" style="112" customWidth="1"/>
+    <col min="2563" max="2563" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="2564" max="2564" width="8" style="112" customWidth="1"/>
+    <col min="2565" max="2568" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="2569" max="2569" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="2570" max="2570" width="10" style="112" customWidth="1"/>
+    <col min="2571" max="2571" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="2572" max="2814" width="8.72727272727273" style="112"/>
+    <col min="2815" max="2815" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="2816" max="2816" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="2817" max="2817" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="2818" max="2818" width="10" style="112" customWidth="1"/>
+    <col min="2819" max="2819" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="2820" max="2820" width="8" style="112" customWidth="1"/>
+    <col min="2821" max="2824" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="2825" max="2825" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="2826" max="2826" width="10" style="112" customWidth="1"/>
+    <col min="2827" max="2827" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="2828" max="3070" width="8.72727272727273" style="112"/>
+    <col min="3071" max="3071" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="3072" max="3072" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="3073" max="3073" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="3074" max="3074" width="10" style="112" customWidth="1"/>
+    <col min="3075" max="3075" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="3076" max="3076" width="8" style="112" customWidth="1"/>
+    <col min="3077" max="3080" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="3081" max="3081" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="3082" max="3082" width="10" style="112" customWidth="1"/>
+    <col min="3083" max="3083" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="3084" max="3326" width="8.72727272727273" style="112"/>
+    <col min="3327" max="3327" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="3328" max="3328" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="3329" max="3329" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="3330" max="3330" width="10" style="112" customWidth="1"/>
+    <col min="3331" max="3331" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="3332" max="3332" width="8" style="112" customWidth="1"/>
+    <col min="3333" max="3336" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="3337" max="3337" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="3338" max="3338" width="10" style="112" customWidth="1"/>
+    <col min="3339" max="3339" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="3340" max="3582" width="8.72727272727273" style="112"/>
+    <col min="3583" max="3583" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="3584" max="3584" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="3585" max="3585" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="3586" max="3586" width="10" style="112" customWidth="1"/>
+    <col min="3587" max="3587" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="3588" max="3588" width="8" style="112" customWidth="1"/>
+    <col min="3589" max="3592" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="3593" max="3593" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="3594" max="3594" width="10" style="112" customWidth="1"/>
+    <col min="3595" max="3595" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="3596" max="3838" width="8.72727272727273" style="112"/>
+    <col min="3839" max="3839" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="3840" max="3840" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="3841" max="3841" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="3842" max="3842" width="10" style="112" customWidth="1"/>
+    <col min="3843" max="3843" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="3844" max="3844" width="8" style="112" customWidth="1"/>
+    <col min="3845" max="3848" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="3849" max="3849" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="3850" max="3850" width="10" style="112" customWidth="1"/>
+    <col min="3851" max="3851" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="3852" max="4094" width="8.72727272727273" style="112"/>
+    <col min="4095" max="4095" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="4096" max="4096" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="4097" max="4097" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="4098" max="4098" width="10" style="112" customWidth="1"/>
+    <col min="4099" max="4099" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="4100" max="4100" width="8" style="112" customWidth="1"/>
+    <col min="4101" max="4104" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="4105" max="4105" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="4106" max="4106" width="10" style="112" customWidth="1"/>
+    <col min="4107" max="4107" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="4108" max="4350" width="8.72727272727273" style="112"/>
+    <col min="4351" max="4351" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="4352" max="4352" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="4353" max="4353" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="4354" max="4354" width="10" style="112" customWidth="1"/>
+    <col min="4355" max="4355" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="4356" max="4356" width="8" style="112" customWidth="1"/>
+    <col min="4357" max="4360" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="4361" max="4361" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="4362" max="4362" width="10" style="112" customWidth="1"/>
+    <col min="4363" max="4363" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="4364" max="4606" width="8.72727272727273" style="112"/>
+    <col min="4607" max="4607" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="4608" max="4608" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="4609" max="4609" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="4610" max="4610" width="10" style="112" customWidth="1"/>
+    <col min="4611" max="4611" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="4612" max="4612" width="8" style="112" customWidth="1"/>
+    <col min="4613" max="4616" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="4617" max="4617" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="4618" max="4618" width="10" style="112" customWidth="1"/>
+    <col min="4619" max="4619" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="4620" max="4862" width="8.72727272727273" style="112"/>
+    <col min="4863" max="4863" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="4864" max="4864" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="4865" max="4865" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="4866" max="4866" width="10" style="112" customWidth="1"/>
+    <col min="4867" max="4867" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="4868" max="4868" width="8" style="112" customWidth="1"/>
+    <col min="4869" max="4872" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="4873" max="4873" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="4874" max="4874" width="10" style="112" customWidth="1"/>
+    <col min="4875" max="4875" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="4876" max="5118" width="8.72727272727273" style="112"/>
+    <col min="5119" max="5119" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="5120" max="5120" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="5121" max="5121" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="5122" max="5122" width="10" style="112" customWidth="1"/>
+    <col min="5123" max="5123" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="5124" max="5124" width="8" style="112" customWidth="1"/>
+    <col min="5125" max="5128" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="5129" max="5129" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="5130" max="5130" width="10" style="112" customWidth="1"/>
+    <col min="5131" max="5131" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="5132" max="5374" width="8.72727272727273" style="112"/>
+    <col min="5375" max="5375" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="5376" max="5376" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="5377" max="5377" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="5378" max="5378" width="10" style="112" customWidth="1"/>
+    <col min="5379" max="5379" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="5380" max="5380" width="8" style="112" customWidth="1"/>
+    <col min="5381" max="5384" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="5385" max="5385" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="5386" max="5386" width="10" style="112" customWidth="1"/>
+    <col min="5387" max="5387" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="5388" max="5630" width="8.72727272727273" style="112"/>
+    <col min="5631" max="5631" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="5632" max="5632" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="5633" max="5633" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="5634" max="5634" width="10" style="112" customWidth="1"/>
+    <col min="5635" max="5635" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="5636" max="5636" width="8" style="112" customWidth="1"/>
+    <col min="5637" max="5640" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="5641" max="5641" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="5642" max="5642" width="10" style="112" customWidth="1"/>
+    <col min="5643" max="5643" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="5644" max="5886" width="8.72727272727273" style="112"/>
+    <col min="5887" max="5887" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="5888" max="5888" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="5889" max="5889" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="5890" max="5890" width="10" style="112" customWidth="1"/>
+    <col min="5891" max="5891" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="5892" max="5892" width="8" style="112" customWidth="1"/>
+    <col min="5893" max="5896" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="5897" max="5897" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="5898" max="5898" width="10" style="112" customWidth="1"/>
+    <col min="5899" max="5899" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="5900" max="6142" width="8.72727272727273" style="112"/>
+    <col min="6143" max="6143" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="6144" max="6144" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="6145" max="6145" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="6146" max="6146" width="10" style="112" customWidth="1"/>
+    <col min="6147" max="6147" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="6148" max="6148" width="8" style="112" customWidth="1"/>
+    <col min="6149" max="6152" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="6153" max="6153" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="6154" max="6154" width="10" style="112" customWidth="1"/>
+    <col min="6155" max="6155" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="6156" max="6398" width="8.72727272727273" style="112"/>
+    <col min="6399" max="6399" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="6400" max="6400" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="6401" max="6401" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="6402" max="6402" width="10" style="112" customWidth="1"/>
+    <col min="6403" max="6403" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="6404" max="6404" width="8" style="112" customWidth="1"/>
+    <col min="6405" max="6408" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="6409" max="6409" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="6410" max="6410" width="10" style="112" customWidth="1"/>
+    <col min="6411" max="6411" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="6412" max="6654" width="8.72727272727273" style="112"/>
+    <col min="6655" max="6655" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="6656" max="6656" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="6657" max="6657" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="6658" max="6658" width="10" style="112" customWidth="1"/>
+    <col min="6659" max="6659" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="6660" max="6660" width="8" style="112" customWidth="1"/>
+    <col min="6661" max="6664" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="6665" max="6665" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="6666" max="6666" width="10" style="112" customWidth="1"/>
+    <col min="6667" max="6667" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="6668" max="6910" width="8.72727272727273" style="112"/>
+    <col min="6911" max="6911" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="6912" max="6912" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="6913" max="6913" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="6914" max="6914" width="10" style="112" customWidth="1"/>
+    <col min="6915" max="6915" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="6916" max="6916" width="8" style="112" customWidth="1"/>
+    <col min="6917" max="6920" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="6921" max="6921" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="6922" max="6922" width="10" style="112" customWidth="1"/>
+    <col min="6923" max="6923" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="6924" max="7166" width="8.72727272727273" style="112"/>
+    <col min="7167" max="7167" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="7168" max="7168" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="7169" max="7169" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="7170" max="7170" width="10" style="112" customWidth="1"/>
+    <col min="7171" max="7171" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="7172" max="7172" width="8" style="112" customWidth="1"/>
+    <col min="7173" max="7176" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="7177" max="7177" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="7178" max="7178" width="10" style="112" customWidth="1"/>
+    <col min="7179" max="7179" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="7180" max="7422" width="8.72727272727273" style="112"/>
+    <col min="7423" max="7423" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="7424" max="7424" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="7425" max="7425" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="7426" max="7426" width="10" style="112" customWidth="1"/>
+    <col min="7427" max="7427" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="7428" max="7428" width="8" style="112" customWidth="1"/>
+    <col min="7429" max="7432" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="7433" max="7433" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="7434" max="7434" width="10" style="112" customWidth="1"/>
+    <col min="7435" max="7435" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="7436" max="7678" width="8.72727272727273" style="112"/>
+    <col min="7679" max="7679" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="7680" max="7680" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="7681" max="7681" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="7682" max="7682" width="10" style="112" customWidth="1"/>
+    <col min="7683" max="7683" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="7684" max="7684" width="8" style="112" customWidth="1"/>
+    <col min="7685" max="7688" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="7689" max="7689" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="7690" max="7690" width="10" style="112" customWidth="1"/>
+    <col min="7691" max="7691" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="7692" max="7934" width="8.72727272727273" style="112"/>
+    <col min="7935" max="7935" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="7936" max="7936" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="7937" max="7937" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="7938" max="7938" width="10" style="112" customWidth="1"/>
+    <col min="7939" max="7939" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="7940" max="7940" width="8" style="112" customWidth="1"/>
+    <col min="7941" max="7944" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="7945" max="7945" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="7946" max="7946" width="10" style="112" customWidth="1"/>
+    <col min="7947" max="7947" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="7948" max="8190" width="8.72727272727273" style="112"/>
+    <col min="8191" max="8191" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="8192" max="8192" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="8193" max="8193" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="8194" max="8194" width="10" style="112" customWidth="1"/>
+    <col min="8195" max="8195" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="8196" max="8196" width="8" style="112" customWidth="1"/>
+    <col min="8197" max="8200" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="8201" max="8201" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="8202" max="8202" width="10" style="112" customWidth="1"/>
+    <col min="8203" max="8203" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="8204" max="8446" width="8.72727272727273" style="112"/>
+    <col min="8447" max="8447" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="8448" max="8448" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="8449" max="8449" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="8450" max="8450" width="10" style="112" customWidth="1"/>
+    <col min="8451" max="8451" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="8452" max="8452" width="8" style="112" customWidth="1"/>
+    <col min="8453" max="8456" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="8457" max="8457" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="8458" max="8458" width="10" style="112" customWidth="1"/>
+    <col min="8459" max="8459" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="8460" max="8702" width="8.72727272727273" style="112"/>
+    <col min="8703" max="8703" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="8704" max="8704" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="8705" max="8705" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="8706" max="8706" width="10" style="112" customWidth="1"/>
+    <col min="8707" max="8707" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="8708" max="8708" width="8" style="112" customWidth="1"/>
+    <col min="8709" max="8712" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="8713" max="8713" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="8714" max="8714" width="10" style="112" customWidth="1"/>
+    <col min="8715" max="8715" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="8716" max="8958" width="8.72727272727273" style="112"/>
+    <col min="8959" max="8959" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="8960" max="8960" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="8961" max="8961" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="8962" max="8962" width="10" style="112" customWidth="1"/>
+    <col min="8963" max="8963" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="8964" max="8964" width="8" style="112" customWidth="1"/>
+    <col min="8965" max="8968" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="8969" max="8969" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="8970" max="8970" width="10" style="112" customWidth="1"/>
+    <col min="8971" max="8971" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="8972" max="9214" width="8.72727272727273" style="112"/>
+    <col min="9215" max="9215" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="9216" max="9216" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="9217" max="9217" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="9218" max="9218" width="10" style="112" customWidth="1"/>
+    <col min="9219" max="9219" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="9220" max="9220" width="8" style="112" customWidth="1"/>
+    <col min="9221" max="9224" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="9225" max="9225" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="9226" max="9226" width="10" style="112" customWidth="1"/>
+    <col min="9227" max="9227" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="9228" max="9470" width="8.72727272727273" style="112"/>
+    <col min="9471" max="9471" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="9472" max="9472" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="9473" max="9473" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="9474" max="9474" width="10" style="112" customWidth="1"/>
+    <col min="9475" max="9475" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="9476" max="9476" width="8" style="112" customWidth="1"/>
+    <col min="9477" max="9480" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="9481" max="9481" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="9482" max="9482" width="10" style="112" customWidth="1"/>
+    <col min="9483" max="9483" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="9484" max="9726" width="8.72727272727273" style="112"/>
+    <col min="9727" max="9727" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="9728" max="9728" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="9729" max="9729" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="9730" max="9730" width="10" style="112" customWidth="1"/>
+    <col min="9731" max="9731" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="9732" max="9732" width="8" style="112" customWidth="1"/>
+    <col min="9733" max="9736" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="9737" max="9737" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="9738" max="9738" width="10" style="112" customWidth="1"/>
+    <col min="9739" max="9739" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="9740" max="9982" width="8.72727272727273" style="112"/>
+    <col min="9983" max="9983" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="9984" max="9984" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="9985" max="9985" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="9986" max="9986" width="10" style="112" customWidth="1"/>
+    <col min="9987" max="9987" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="9988" max="9988" width="8" style="112" customWidth="1"/>
+    <col min="9989" max="9992" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="9993" max="9993" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="9994" max="9994" width="10" style="112" customWidth="1"/>
+    <col min="9995" max="9995" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="9996" max="10238" width="8.72727272727273" style="112"/>
+    <col min="10239" max="10239" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="10240" max="10240" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="10241" max="10241" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="10242" max="10242" width="10" style="112" customWidth="1"/>
+    <col min="10243" max="10243" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="10244" max="10244" width="8" style="112" customWidth="1"/>
+    <col min="10245" max="10248" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="10249" max="10249" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="10250" max="10250" width="10" style="112" customWidth="1"/>
+    <col min="10251" max="10251" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="10252" max="10494" width="8.72727272727273" style="112"/>
+    <col min="10495" max="10495" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="10496" max="10496" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="10497" max="10497" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="10498" max="10498" width="10" style="112" customWidth="1"/>
+    <col min="10499" max="10499" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="10500" max="10500" width="8" style="112" customWidth="1"/>
+    <col min="10501" max="10504" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="10505" max="10505" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="10506" max="10506" width="10" style="112" customWidth="1"/>
+    <col min="10507" max="10507" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="10508" max="10750" width="8.72727272727273" style="112"/>
+    <col min="10751" max="10751" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="10752" max="10752" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="10753" max="10753" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="10754" max="10754" width="10" style="112" customWidth="1"/>
+    <col min="10755" max="10755" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="10756" max="10756" width="8" style="112" customWidth="1"/>
+    <col min="10757" max="10760" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="10761" max="10761" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="10762" max="10762" width="10" style="112" customWidth="1"/>
+    <col min="10763" max="10763" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="10764" max="11006" width="8.72727272727273" style="112"/>
+    <col min="11007" max="11007" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="11008" max="11008" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="11009" max="11009" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="11010" max="11010" width="10" style="112" customWidth="1"/>
+    <col min="11011" max="11011" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="11012" max="11012" width="8" style="112" customWidth="1"/>
+    <col min="11013" max="11016" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="11017" max="11017" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="11018" max="11018" width="10" style="112" customWidth="1"/>
+    <col min="11019" max="11019" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="11020" max="11262" width="8.72727272727273" style="112"/>
+    <col min="11263" max="11263" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="11264" max="11264" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="11265" max="11265" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="11266" max="11266" width="10" style="112" customWidth="1"/>
+    <col min="11267" max="11267" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="11268" max="11268" width="8" style="112" customWidth="1"/>
+    <col min="11269" max="11272" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="11273" max="11273" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="11274" max="11274" width="10" style="112" customWidth="1"/>
+    <col min="11275" max="11275" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="11276" max="11518" width="8.72727272727273" style="112"/>
+    <col min="11519" max="11519" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="11520" max="11520" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="11521" max="11521" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="11522" max="11522" width="10" style="112" customWidth="1"/>
+    <col min="11523" max="11523" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="11524" max="11524" width="8" style="112" customWidth="1"/>
+    <col min="11525" max="11528" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="11529" max="11529" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="11530" max="11530" width="10" style="112" customWidth="1"/>
+    <col min="11531" max="11531" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="11532" max="11774" width="8.72727272727273" style="112"/>
+    <col min="11775" max="11775" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="11776" max="11776" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="11777" max="11777" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="11778" max="11778" width="10" style="112" customWidth="1"/>
+    <col min="11779" max="11779" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="11780" max="11780" width="8" style="112" customWidth="1"/>
+    <col min="11781" max="11784" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="11785" max="11785" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="11786" max="11786" width="10" style="112" customWidth="1"/>
+    <col min="11787" max="11787" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="11788" max="12030" width="8.72727272727273" style="112"/>
+    <col min="12031" max="12031" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="12032" max="12032" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="12033" max="12033" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="12034" max="12034" width="10" style="112" customWidth="1"/>
+    <col min="12035" max="12035" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="12036" max="12036" width="8" style="112" customWidth="1"/>
+    <col min="12037" max="12040" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="12041" max="12041" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="12042" max="12042" width="10" style="112" customWidth="1"/>
+    <col min="12043" max="12043" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="12044" max="12286" width="8.72727272727273" style="112"/>
+    <col min="12287" max="12287" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="12288" max="12288" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="12289" max="12289" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="12290" max="12290" width="10" style="112" customWidth="1"/>
+    <col min="12291" max="12291" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="12292" max="12292" width="8" style="112" customWidth="1"/>
+    <col min="12293" max="12296" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="12297" max="12297" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="12298" max="12298" width="10" style="112" customWidth="1"/>
+    <col min="12299" max="12299" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="12300" max="12542" width="8.72727272727273" style="112"/>
+    <col min="12543" max="12543" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="12544" max="12544" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="12545" max="12545" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="12546" max="12546" width="10" style="112" customWidth="1"/>
+    <col min="12547" max="12547" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="12548" max="12548" width="8" style="112" customWidth="1"/>
+    <col min="12549" max="12552" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="12553" max="12553" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="12554" max="12554" width="10" style="112" customWidth="1"/>
+    <col min="12555" max="12555" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="12556" max="12798" width="8.72727272727273" style="112"/>
+    <col min="12799" max="12799" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="12800" max="12800" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="12801" max="12801" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="12802" max="12802" width="10" style="112" customWidth="1"/>
+    <col min="12803" max="12803" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="12804" max="12804" width="8" style="112" customWidth="1"/>
+    <col min="12805" max="12808" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="12809" max="12809" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="12810" max="12810" width="10" style="112" customWidth="1"/>
+    <col min="12811" max="12811" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="12812" max="13054" width="8.72727272727273" style="112"/>
+    <col min="13055" max="13055" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="13056" max="13056" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="13057" max="13057" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="13058" max="13058" width="10" style="112" customWidth="1"/>
+    <col min="13059" max="13059" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="13060" max="13060" width="8" style="112" customWidth="1"/>
+    <col min="13061" max="13064" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="13065" max="13065" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="13066" max="13066" width="10" style="112" customWidth="1"/>
+    <col min="13067" max="13067" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="13068" max="13310" width="8.72727272727273" style="112"/>
+    <col min="13311" max="13311" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="13312" max="13312" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="13313" max="13313" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="13314" max="13314" width="10" style="112" customWidth="1"/>
+    <col min="13315" max="13315" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="13316" max="13316" width="8" style="112" customWidth="1"/>
+    <col min="13317" max="13320" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="13321" max="13321" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="13322" max="13322" width="10" style="112" customWidth="1"/>
+    <col min="13323" max="13323" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="13324" max="13566" width="8.72727272727273" style="112"/>
+    <col min="13567" max="13567" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="13568" max="13568" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="13569" max="13569" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="13570" max="13570" width="10" style="112" customWidth="1"/>
+    <col min="13571" max="13571" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="13572" max="13572" width="8" style="112" customWidth="1"/>
+    <col min="13573" max="13576" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="13577" max="13577" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="13578" max="13578" width="10" style="112" customWidth="1"/>
+    <col min="13579" max="13579" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="13580" max="13822" width="8.72727272727273" style="112"/>
+    <col min="13823" max="13823" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="13824" max="13824" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="13825" max="13825" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="13826" max="13826" width="10" style="112" customWidth="1"/>
+    <col min="13827" max="13827" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="13828" max="13828" width="8" style="112" customWidth="1"/>
+    <col min="13829" max="13832" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="13833" max="13833" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="13834" max="13834" width="10" style="112" customWidth="1"/>
+    <col min="13835" max="13835" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="13836" max="14078" width="8.72727272727273" style="112"/>
+    <col min="14079" max="14079" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="14080" max="14080" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="14081" max="14081" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="14082" max="14082" width="10" style="112" customWidth="1"/>
+    <col min="14083" max="14083" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="14084" max="14084" width="8" style="112" customWidth="1"/>
+    <col min="14085" max="14088" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="14089" max="14089" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="14090" max="14090" width="10" style="112" customWidth="1"/>
+    <col min="14091" max="14091" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="14092" max="14334" width="8.72727272727273" style="112"/>
+    <col min="14335" max="14335" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="14336" max="14336" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="14337" max="14337" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="14338" max="14338" width="10" style="112" customWidth="1"/>
+    <col min="14339" max="14339" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="14340" max="14340" width="8" style="112" customWidth="1"/>
+    <col min="14341" max="14344" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="14345" max="14345" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="14346" max="14346" width="10" style="112" customWidth="1"/>
+    <col min="14347" max="14347" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="14348" max="14590" width="8.72727272727273" style="112"/>
+    <col min="14591" max="14591" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="14592" max="14592" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="14593" max="14593" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="14594" max="14594" width="10" style="112" customWidth="1"/>
+    <col min="14595" max="14595" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="14596" max="14596" width="8" style="112" customWidth="1"/>
+    <col min="14597" max="14600" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="14601" max="14601" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="14602" max="14602" width="10" style="112" customWidth="1"/>
+    <col min="14603" max="14603" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="14604" max="14846" width="8.72727272727273" style="112"/>
+    <col min="14847" max="14847" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="14848" max="14848" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="14849" max="14849" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="14850" max="14850" width="10" style="112" customWidth="1"/>
+    <col min="14851" max="14851" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="14852" max="14852" width="8" style="112" customWidth="1"/>
+    <col min="14853" max="14856" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="14857" max="14857" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="14858" max="14858" width="10" style="112" customWidth="1"/>
+    <col min="14859" max="14859" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="14860" max="15102" width="8.72727272727273" style="112"/>
+    <col min="15103" max="15103" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="15104" max="15104" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="15105" max="15105" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="15106" max="15106" width="10" style="112" customWidth="1"/>
+    <col min="15107" max="15107" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="15108" max="15108" width="8" style="112" customWidth="1"/>
+    <col min="15109" max="15112" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="15113" max="15113" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="15114" max="15114" width="10" style="112" customWidth="1"/>
+    <col min="15115" max="15115" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="15116" max="15358" width="8.72727272727273" style="112"/>
+    <col min="15359" max="15359" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="15360" max="15360" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="15361" max="15361" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="15362" max="15362" width="10" style="112" customWidth="1"/>
+    <col min="15363" max="15363" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="15364" max="15364" width="8" style="112" customWidth="1"/>
+    <col min="15365" max="15368" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="15369" max="15369" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="15370" max="15370" width="10" style="112" customWidth="1"/>
+    <col min="15371" max="15371" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="15372" max="15614" width="8.72727272727273" style="112"/>
+    <col min="15615" max="15615" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="15616" max="15616" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="15617" max="15617" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="15618" max="15618" width="10" style="112" customWidth="1"/>
+    <col min="15619" max="15619" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="15620" max="15620" width="8" style="112" customWidth="1"/>
+    <col min="15621" max="15624" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="15625" max="15625" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="15626" max="15626" width="10" style="112" customWidth="1"/>
+    <col min="15627" max="15627" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="15628" max="15870" width="8.72727272727273" style="112"/>
+    <col min="15871" max="15871" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="15872" max="15872" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="15873" max="15873" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="15874" max="15874" width="10" style="112" customWidth="1"/>
+    <col min="15875" max="15875" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="15876" max="15876" width="8" style="112" customWidth="1"/>
+    <col min="15877" max="15880" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="15881" max="15881" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="15882" max="15882" width="10" style="112" customWidth="1"/>
+    <col min="15883" max="15883" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="15884" max="16126" width="8.72727272727273" style="112"/>
+    <col min="16127" max="16127" width="11.7272727272727" style="112" customWidth="1"/>
+    <col min="16128" max="16128" width="9.72727272727273" style="112" customWidth="1"/>
+    <col min="16129" max="16129" width="10.7272727272727" style="112" customWidth="1"/>
+    <col min="16130" max="16130" width="10" style="112" customWidth="1"/>
+    <col min="16131" max="16131" width="11.4545454545455" style="112" customWidth="1"/>
+    <col min="16132" max="16132" width="8" style="112" customWidth="1"/>
+    <col min="16133" max="16136" width="10.0909090909091" style="112" customWidth="1"/>
+    <col min="16137" max="16137" width="8.45454545454546" style="112" customWidth="1"/>
+    <col min="16138" max="16138" width="10" style="112" customWidth="1"/>
+    <col min="16139" max="16139" width="15.4545454545455" style="112" customWidth="1"/>
+    <col min="16140" max="16384" width="8.72727272727273" style="112"/>
   </cols>
   <sheetData>
     <row r="1" ht="47.5" customHeight="1" spans="1:10">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="160"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="161"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="161" t="s">
+      <c r="J2" s="162" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="161"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="162"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="117">
+      <c r="A4" s="118">
         <v>1</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="120">
+      <c r="D4" s="121">
         <v>0.15</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="162"/>
-      <c r="J4" s="163" t="s">
+      <c r="I4" s="163"/>
+      <c r="J4" s="164" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="58" spans="1:10">
-      <c r="A5" s="117">
+      <c r="A5" s="118">
         <v>2</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="123">
+      <c r="D5" s="124">
         <v>0.1</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="163" t="s">
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="164" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="29" spans="1:10">
-      <c r="A6" s="117">
+      <c r="A6" s="118">
         <v>3</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="120">
+      <c r="D6" s="121">
         <v>0.2</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="163" t="s">
+      <c r="I6" s="163"/>
+      <c r="J6" s="164" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="117">
+      <c r="A7" s="118">
         <v>4</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="121">
         <v>1</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="121">
         <v>0.1</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="121">
         <v>1</v>
       </c>
-      <c r="F7" s="120">
+      <c r="F7" s="121">
         <v>1</v>
       </c>
-      <c r="G7" s="120">
+      <c r="G7" s="121">
         <v>1</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="121">
         <v>1</v>
       </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="164"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="165"/>
     </row>
-    <row r="8" s="110" customFormat="1" spans="1:10">
-      <c r="A8" s="128"/>
-      <c r="B8" s="115" t="s">
+    <row r="8" s="111" customFormat="1" spans="1:10">
+      <c r="A8" s="129"/>
+      <c r="B8" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130" t="s">
+      <c r="D8" s="130"/>
+      <c r="E8" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116" t="s">
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="161" t="s">
+      <c r="J8" s="162" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="29" spans="1:10">
-      <c r="A9" s="117">
+      <c r="A9" s="118">
         <v>5</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="120">
+      <c r="D9" s="121">
         <v>0.1</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="164"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="117">
+      <c r="A10" s="118">
         <v>6</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="120">
+      <c r="D10" s="121">
         <v>0.05</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163" t="s">
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="29" spans="1:10">
-      <c r="A11" s="117">
+      <c r="A11" s="118">
         <v>7</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="120">
+      <c r="D11" s="121">
         <v>0.05</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163" t="s">
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="164" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="29" spans="1:10">
-      <c r="A12" s="117">
+      <c r="A12" s="118">
         <v>8</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="121">
         <v>0.15</v>
       </c>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="164"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="165"/>
     </row>
     <row r="13" ht="29" spans="1:10">
-      <c r="A13" s="117">
+      <c r="A13" s="118">
         <v>9</v>
       </c>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="120">
+      <c r="D13" s="121">
         <v>0.05</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="164"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" ht="43.5" spans="1:10">
-      <c r="A14" s="117">
+      <c r="A14" s="118">
         <v>10</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="120">
+      <c r="D14" s="121">
         <v>0.05</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="E14" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="164"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" ht="15.25" spans="1:10">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141">
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142">
         <f>SUM(D4:D14)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="165"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="166" t="s">
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="167" t="s">
+      <c r="J16" s="168" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="148"/>
-      <c r="B17" s="149" t="s">
+      <c r="A17" s="149"/>
+      <c r="B17" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="153" t="s">
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="168"/>
-      <c r="J17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
     </row>
     <row r="18" ht="15.25" spans="1:10">
-      <c r="A18" s="154"/>
-      <c r="B18" s="155" t="s">
+      <c r="A18" s="155"/>
+      <c r="B18" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="159" t="s">
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6080,9 +6105,9 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -6133,7 +6158,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="100"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
       <c r="A3" s="19" t="s">
@@ -6166,24 +6191,24 @@
       <c r="J3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="92" spans="1:13">
+    <row r="4" s="3" customFormat="1" ht="97" customHeight="1" spans="1:13">
       <c r="A4" s="85">
         <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="109">
+      <c r="C4" s="86">
         <v>0.2</v>
       </c>
       <c r="D4" s="87" t="s">
@@ -6201,17 +6226,17 @@
       <c r="H4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="102">
+      <c r="J4" s="101">
         <v>0.95</v>
       </c>
-      <c r="K4" s="103">
+      <c r="K4" s="102">
         <v>19</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="142" customHeight="1" spans="1:13">
       <c r="A5" s="85">
@@ -6221,7 +6246,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="86">
-        <v>0.65</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="87" t="s">
         <v>81</v>
@@ -6238,17 +6263,17 @@
       <c r="H5" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="101">
         <v>0.95</v>
       </c>
-      <c r="K5" s="103">
-        <v>61</v>
-      </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
+      <c r="K5" s="102">
+        <v>19</v>
+      </c>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
       <c r="A6" s="19" t="s">
@@ -6277,144 +6302,213 @@
         <v>69</v>
       </c>
       <c r="J6" s="66"/>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="101" t="s">
+      <c r="L6" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="101" t="s">
+      <c r="M6" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
+    <row r="7" s="4" customFormat="1" ht="51" customHeight="1" spans="1:13">
       <c r="A7" s="85">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="86">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="109">
+        <v>44530</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="90"/>
+      <c r="K7" s="87">
+        <v>19</v>
+      </c>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="80" customHeight="1" spans="1:13">
+      <c r="A8" s="85">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="109">
+        <v>44530</v>
+      </c>
+      <c r="I8" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="90"/>
+      <c r="K8" s="87">
+        <v>24</v>
+      </c>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
+      <c r="A9" s="85">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="B9" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="46">
         <v>0.15</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="103">
+      <c r="D9" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="102">
         <v>14</v>
       </c>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
-      <c r="A8" s="85">
+    <row r="10" s="5" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
+      <c r="A10" s="85">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="B10" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
-      <c r="A9" s="93" t="s">
+    <row r="11" s="6" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
+      <c r="A11" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94">
-        <f>SUM(C4:C7)</f>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93">
+        <f>SUM(C4:C9)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105">
-        <f>SUM(K4:K8)</f>
-        <v>94</v>
-      </c>
-      <c r="L9" s="105">
-        <f>SUM(L4:L8)</f>
+      <c r="D11" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104">
+        <f>SUM(K4:K10)</f>
+        <v>95</v>
+      </c>
+      <c r="L11" s="104">
+        <f>SUM(L4:L10)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="105"/>
+      <c r="M11" s="104"/>
     </row>
-    <row r="10" s="7" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
-      <c r="A10" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="106"/>
+    <row r="12" s="7" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
+      <c r="A12" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="105"/>
     </row>
-    <row r="11" s="8" customFormat="1" ht="36" customHeight="1" spans="1:13">
-      <c r="A11" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="107"/>
+    <row r="13" s="8" customFormat="1" ht="36" customHeight="1" spans="1:13">
+      <c r="A13" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="106"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="11.5" spans="3:13">
-      <c r="C12" s="58"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
+    <row r="14" s="9" customFormat="1" ht="11.5" spans="3:13">
+      <c r="C14" s="58"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.196850393700787" bottom="0.196850393700787" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="landscape"/>
@@ -6427,7 +6521,7 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -6448,7 +6542,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24.65" customHeight="1" spans="1:13">
       <c r="A1" s="83" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -6465,7 +6559,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
       <c r="A2" s="84" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -6478,7 +6572,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-      <c r="M2" s="100"/>
+      <c r="M2" s="99"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
       <c r="A3" s="19" t="s">
@@ -6511,28 +6605,28 @@
       <c r="J3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="59" customHeight="1" spans="1:13">
+    <row r="4" s="3" customFormat="1" ht="135" customHeight="1" spans="1:13">
       <c r="A4" s="85">
         <v>1</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C4" s="86">
-        <v>0.85</v>
+        <v>0.45</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E4" s="88" t="s">
         <v>75</v>
@@ -6546,28 +6640,42 @@
       <c r="H4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="46.9" customHeight="1" spans="1:13">
+    <row r="5" s="3" customFormat="1" ht="175" customHeight="1" spans="1:13">
       <c r="A5" s="85">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
+      <c r="B5" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="86">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="87"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="46.9" customHeight="1" spans="1:13">
       <c r="A6" s="85">
@@ -6575,16 +6683,16 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="86"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
       <c r="A7" s="19" t="s">
@@ -6613,13 +6721,13 @@
         <v>69</v>
       </c>
       <c r="J7" s="66"/>
-      <c r="K7" s="101" t="s">
+      <c r="K7" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="100" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6629,16 +6737,16 @@
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="55.5" customHeight="1" spans="1:13">
       <c r="A9" s="85">
@@ -6646,16 +6754,16 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="55.5" customHeight="1" spans="1:13">
       <c r="A10" s="85">
@@ -6663,16 +6771,16 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="55.5" customHeight="1" spans="1:13">
       <c r="A11" s="85">
@@ -6680,29 +6788,29 @@
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
       <c r="A12" s="85">
         <v>5</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C12" s="46">
         <v>0.15</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -6710,22 +6818,22 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="73"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
       <c r="A13" s="85">
         <v>6</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -6733,41 +6841,41 @@
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
       <c r="J13" s="73"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" s="6" customFormat="1" ht="25.15" customHeight="1" spans="1:13">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94">
+      <c r="B14" s="92"/>
+      <c r="C14" s="93">
         <f>SUM(C4:C12)</f>
         <v>1</v>
       </c>
-      <c r="D14" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105">
+      <c r="D14" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104">
         <f>SUM(K4:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="104">
         <f>SUM(L4:L13)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="105"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" s="7" customFormat="1" ht="28.15" customHeight="1" spans="1:13">
-      <c r="A15" s="97" t="s">
-        <v>91</v>
+      <c r="A15" s="96" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="55"/>
@@ -6780,30 +6888,30 @@
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
       <c r="L15" s="55"/>
-      <c r="M15" s="106"/>
+      <c r="M15" s="105"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="36" customHeight="1" spans="1:13">
-      <c r="A16" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="107"/>
+      <c r="A16" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="106"/>
     </row>
     <row r="17" s="9" customFormat="1" ht="11.5" spans="3:13">
       <c r="C17" s="58"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6863,7 +6971,7 @@
     <row r="1" ht="89.25" customHeight="1"/>
     <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="2:14">
       <c r="B2" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -6880,7 +6988,7 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="25.15" customHeight="1" spans="2:14">
       <c r="B3" s="14" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -6941,28 +7049,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D5" s="22">
         <v>0.2</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G5" s="25">
         <v>1</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J5" s="62" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K5" s="63">
         <f>2/2*100%</f>
@@ -6980,28 +7088,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D6" s="22">
         <v>0.2</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G6" s="25">
         <v>1</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K6" s="63">
         <f>7/9*100%</f>
@@ -7056,26 +7164,26 @@
         <v>1</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D8" s="33">
         <v>0.2</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G8" s="36"/>
       <c r="H8" s="37" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="I8" s="68">
         <v>43861</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K8" s="69"/>
       <c r="L8" s="64">
@@ -7089,16 +7197,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D9" s="33">
         <v>0.05</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="38"/>
@@ -7106,7 +7214,7 @@
         <v>43861</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K9" s="69"/>
       <c r="L9" s="64">
@@ -7120,16 +7228,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D10" s="40">
         <v>0.1</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="38"/>
@@ -7137,7 +7245,7 @@
         <v>43861</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" s="36"/>
       <c r="L10" s="64">
@@ -7151,16 +7259,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D11" s="33">
         <v>0.1</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="43"/>
@@ -7168,7 +7276,7 @@
         <v>43861</v>
       </c>
       <c r="J11" s="35" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="36"/>
       <c r="L11" s="64">
@@ -7182,13 +7290,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D12" s="46">
         <v>0.15</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
@@ -7207,13 +7315,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
@@ -7235,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53"/>
@@ -7252,7 +7360,7 @@
     </row>
     <row r="15" s="7" customFormat="1" ht="28.15" customHeight="1" spans="2:14">
       <c r="B15" s="54" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -7269,7 +7377,7 @@
     </row>
     <row r="16" s="8" customFormat="1" ht="36" customHeight="1" spans="2:14">
       <c r="B16" s="56" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
